--- a/media/export/first.xlsx
+++ b/media/export/first.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202206eBay" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202301eBay" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022年12月eBay" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022年12月Coupang" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023年01月eBay" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023年01月Coupang" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,6 +36,10 @@
     <font>
       <name val="微软雅黑"/>
       <color rgb="00ffffff"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
       <sz val="8"/>
     </font>
   </fonts>
@@ -55,7 +61,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,16 +69,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00e7e6e6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00e7e6e6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00e7e6e6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00e7e6e6"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,143 +475,180 @@
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>202206eBay</t>
-        </is>
-      </c>
+          <t>2022年12月eBay销售报表-韦泳冰</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
     </row>
     <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>账号</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>eBay站点</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>销售收入</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>净收款</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>退款</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>结汇收入</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>eBay费用</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>产品成本</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>物流成本</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>毛利润</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>订单数</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>平均客单价</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>广告费</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>广告费占比</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>提成(9.0%)</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>提成(8.0%)</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>是否记入提成</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>goodbuy</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>澳洲站</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>110</v>
-      </c>
-      <c r="F3" t="n">
-        <v>78975</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18900</v>
-      </c>
-      <c r="I3" t="n">
-        <v>21000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>39075</v>
-      </c>
-      <c r="K3" t="n">
-        <v>300</v>
-      </c>
-      <c r="L3" t="n">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3516.75</v>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>thesky488</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>英国站</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>USD 3,000.00</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>USD 2,800.00</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>USD 30.00</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>￥17,745.00</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>USD 800.00</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>￥3,000.00</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>￥4,000.00</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>￥10,745.00</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>USD 25.00</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>USD 20.00</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>￥859.60</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>是</t>
         </is>
@@ -607,7 +668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,199 +679,344 @@
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>202301eBay</t>
-        </is>
-      </c>
+          <t>2022年12月Coupang销售报表-韦泳冰</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
     </row>
     <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>账号</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>eBay站点</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>站点</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>销售收入</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>净收款</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>退款</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>销售手续费</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>CGF/CGF LITE Fees</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>最终支付金额</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>结汇收入</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>eBay费用</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>产品成本</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>物流成本</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>CGF发仓运费</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>毛利润</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>订单数</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>平均客单价</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>广告费</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>广告费占比</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>提成(10.0%)</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>提成(8.0%)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>是否记入提成</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>he11111</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>tuosile</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>KWR 3,849,790.00</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>KWR 330,272.00</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>KWR 1,001,527.00</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>KWR 2,222,238.00</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>￥11,770.34</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>￥4,150.00</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>￥0.00</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>￥7,620.34</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>￥609.63</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="50" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2023年01月eBay销售报表-韦泳冰</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>eBay站点</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>销售收入</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>净收款</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>退款</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>结汇收入</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>eBay费用</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>产品成本</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>物流成本</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>毛利润</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>订单数</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>平均客单价</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>广告费</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>广告费占比</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>提成(8.0%)</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>是否记入提成</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>thesky488</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>英国站</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>2120</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2110</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>13166.4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1110</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2220</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9836.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>110</v>
-      </c>
-      <c r="L3" t="n">
-        <v>19.27272727272727</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>983.64</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>he</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>英国站</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2120</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2110</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13166.4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1110</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2220</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9836.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>110</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19.27272727272727</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>885.276</v>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>USD 2,000.00</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>USD 1,800.00</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>USD 10.00</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>￥11,232.00</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>USD 500.00</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>￥2,000.00</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>￥2,100.00</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>￥7,132.00</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>USD 25.00</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>USD 10.00</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>￥570.56</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>是</t>
         </is>
@@ -822,4 +1028,168 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="50" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2023年01月Coupang销售报表-韦泳冰</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>站点</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>销售收入</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>销售手续费</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>CGF/CGF LITE Fees</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>最终支付金额</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>结汇收入</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>产品成本</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>CGF发仓运费</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>毛利润</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>提成(8.0%)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>是否记入提成</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>tuosile</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>KWR 7,396,200.00</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>KWR 634,520.00</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>KWR 2,053,223.00</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>KWR 4,949,210.00</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>￥26,095.70</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>￥7,961.50</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>￥1,200.00</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>￥16,934.20</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>￥1,354.74</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/media/export/first.xlsx
+++ b/media/export/first.xlsx
@@ -7,10 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022年12月eBay" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022年12月Coupang" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023年01月eBay" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023年01月Coupang" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023年01月eBay" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +472,7 @@
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2022年12月eBay销售报表-韦泳冰</t>
+          <t>2023年01月eBay销售报表-吴梓涵</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -567,7 +564,7 @@
       </c>
       <c r="O2" s="3" t="inlineStr">
         <is>
-          <t>提成(8.0%)</t>
+          <t>提成(10.0%)</t>
         </is>
       </c>
       <c r="P2" s="3" t="inlineStr">
@@ -579,7 +576,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>thesky488</t>
+          <t>he11111</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -589,66 +586,144 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>USD 3,000.00</t>
+          <t>USD 2,120.00</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>USD 2,800.00</t>
+          <t>USD 2,110.00</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>USD 30.00</t>
+          <t>USD 0.00</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>￥17,745.00</t>
+          <t>￥13,166.40</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>USD 800.00</t>
+          <t>USD 10.00</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>￥3,000.00</t>
+          <t>￥1,110.00</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>￥4,000.00</t>
+          <t>￥2,220.00</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>￥10,745.00</t>
+          <t>￥9,836.40</t>
         </is>
       </c>
       <c r="K3" s="4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>USD 25.00</t>
+          <t>USD 19.27</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
-          <t>USD 20.00</t>
+          <t>USD 0.00</t>
         </is>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
-          <t>￥859.60</t>
+          <t>￥983.64</t>
         </is>
       </c>
       <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>英国站</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>USD 2,120.00</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>USD 2,110.00</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>USD 0.00</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>￥13,166.40</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>USD 10.00</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>￥1,110.00</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>￥2,220.00</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>￥9,836.40</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>USD 19.27</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>USD 0.00</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>￥885.28</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>是</t>
         </is>
@@ -660,536 +735,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="50" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2022年12月Coupang销售报表-韦泳冰</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>账号</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>站点</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>销售收入</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>销售手续费</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>CGF/CGF LITE Fees</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>最终支付金额</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>结汇收入</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>产品成本</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>CGF发仓运费</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>毛利润</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>提成(8.0%)</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>是否记入提成</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>tuosile</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>韩国</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>KWR 3,849,790.00</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>KWR 330,272.00</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>KWR 1,001,527.00</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>KWR 2,222,238.00</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>￥11,770.34</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>￥4,150.00</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>￥0.00</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>￥7,620.34</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>￥609.63</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="50" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2023年01月eBay销售报表-韦泳冰</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>账号</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>eBay站点</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>销售收入</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>净收款</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>退款</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>结汇收入</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>eBay费用</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>产品成本</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>物流成本</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>毛利润</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>订单数</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>平均客单价</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>广告费</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>广告费占比</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>提成(8.0%)</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>是否记入提成</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>thesky488</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>英国站</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>USD 2,000.00</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>USD 1,800.00</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>USD 10.00</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>￥11,232.00</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>USD 500.00</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>￥2,000.00</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>￥2,100.00</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>￥7,132.00</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>USD 25.00</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>USD 10.00</t>
-        </is>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t>￥570.56</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="50" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2023年01月Coupang销售报表-韦泳冰</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>账号</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>站点</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>销售收入</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>销售手续费</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>CGF/CGF LITE Fees</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>最终支付金额</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>结汇收入</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>产品成本</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>CGF发仓运费</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>毛利润</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>提成(8.0%)</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>是否记入提成</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>tuosile</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>韩国</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>KWR 7,396,200.00</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>KWR 634,520.00</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>KWR 2,053,223.00</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>KWR 4,949,210.00</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>￥26,095.70</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>￥7,961.50</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>￥1,200.00</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>￥16,934.20</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>￥1,354.74</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/media/export/first.xlsx
+++ b/media/export/first.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023年01月eBay" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022年03月eBay" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2023年01月eBay销售报表-吴梓涵</t>
+          <t>2022年03月eBay销售报表-卢翔宇</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -564,7 +564,7 @@
       </c>
       <c r="O2" s="3" t="inlineStr">
         <is>
-          <t>提成(10.0%)</t>
+          <t>提成(9.0%)</t>
         </is>
       </c>
       <c r="P2" s="3" t="inlineStr">
@@ -576,156 +576,390 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>he11111</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>英国站</t>
+          <t>澳洲站</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>USD 2,120.00</t>
+          <t>AUD 14,270.91</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>USD 2,110.00</t>
+          <t>AUD 10,345.98</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>USD 0.00</t>
+          <t>AUD 828.66</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>￥13,166.40</t>
+          <t>￥46,401.72</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>USD 10.00</t>
+          <t>AUD 3,208.05</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>￥1,110.00</t>
+          <t>￥14,566.50</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>￥2,220.00</t>
+          <t>￥27,615.03</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>￥9,836.40</t>
+          <t>￥4,220.19</t>
         </is>
       </c>
       <c r="K3" s="4" t="n">
-        <v>110</v>
+        <v>868</v>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>USD 19.27</t>
+          <t>AUD 16.44</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
-          <t>USD 0.00</t>
+          <t>AUD 1,209.43</t>
         </is>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>0.08474792427392508</v>
       </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
-          <t>￥983.64</t>
+          <t>￥379.82</t>
         </is>
       </c>
       <c r="P3" s="4" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>ABY360</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t>澳洲站</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>AUD 23,623.55</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>AUD 17,841.17</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>AUD 1,323.56</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>￥80,017.65</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>AUD 5,260.27</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>￥23,064.25</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>￥44,178.66</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>￥12,774.74</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1422</v>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>AUD 16.61</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>AUD 1,924.45</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.08146320091603507</v>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>￥1,149.73</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>xfunget</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>澳洲站</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>AUD 11,123.32</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>AUD 10,120.88</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>AUD 132.11</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>￥45,392.15</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>AUD 1,657.15</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>￥10,066.00</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>￥21,486.46</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>￥13,839.69</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>703</v>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>AUD 15.82</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>AUD 0.00</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>￥1,245.57</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>nextsp2020</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
           <t>英国站</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>USD 2,120.00</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>USD 2,110.00</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>USD 71.78</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>USD 192.74</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>USD 44.89</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>￥1,183.91</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>USD 55.83</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>￥139.50</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>￥229.80</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>￥814.61</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>USD 5.13</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>USD 0.00</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>￥13,166.40</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>USD 10.00</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>￥1,110.00</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>￥2,220.00</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>￥9,836.40</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>USD 19.27</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>USD 0.00</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="n">
+      <c r="N6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>￥885.28</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>是</t>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>￥73.31</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>szsuk2020</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>美国站</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>USD 2,051.30</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>USD 1,643.92</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>USD 119.94</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>￥10,097.78</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>USD 639.98</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>￥3,286.40</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>￥4,989.00</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>￥1,822.38</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>183</v>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>USD 11.21</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>USD 313.19</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.1526787890605957</v>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>￥164.01</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>否</t>
         </is>
       </c>
     </row>
